--- a/rider/monthly/2016_12.xlsx
+++ b/rider/monthly/2016_12.xlsx
@@ -333,94 +333,94 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>256</c:v>
+                  <c:v>247</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>263</c:v>
+                  <c:v>253</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>153</c:v>
+                  <c:v>141</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>128</c:v>
+                  <c:v>133</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>224</c:v>
+                  <c:v>273</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>218</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>289</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>217</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>241</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>332</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>284</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>227</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>248</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>136</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>143</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>282</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>182</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>212</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>274</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>299</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>173</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>147</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>268</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>257</c:v>
-                </c:pt>
                 <c:pt idx="20">
-                  <c:v>204</c:v>
+                  <c:v>202</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>210</c:v>
+                  <c:v>201</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>95</c:v>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>44</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>46</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>147</c:v>
+                  <c:v>144</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>148</c:v>
+                  <c:v>139</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>354</c:v>
+                  <c:v>357</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>56</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -547,94 +547,94 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>250</c:v>
+                  <c:v>248.75</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>232.8</c:v>
+                  <c:v>237.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>123.83</c:v>
+                  <c:v>123</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>92.67</c:v>
+                  <c:v>89.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>258.5</c:v>
+                  <c:v>264</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>231</c:v>
+                  <c:v>230.83</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>206.83</c:v>
+                  <c:v>198.33</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>227.2</c:v>
+                  <c:v>226.4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>207.5</c:v>
+                  <c:v>211</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>126.57</c:v>
+                  <c:v>125.57</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>102.14</c:v>
+                  <c:v>99.86</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>261.86</c:v>
+                  <c:v>267.57</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>224</c:v>
+                  <c:v>228.86</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>207.57</c:v>
+                  <c:v>197.14</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>235</c:v>
+                  <c:v>228.83</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>220.57</c:v>
+                  <c:v>228.29</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>132.38</c:v>
+                  <c:v>132.5</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>107.75</c:v>
+                  <c:v>105.5</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>262.62</c:v>
+                  <c:v>269.62</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>228.12</c:v>
+                  <c:v>228.62</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>207.12</c:v>
+                  <c:v>197.75</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>231.43</c:v>
+                  <c:v>224.86</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>204.88</c:v>
+                  <c:v>211.25</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>122.56</c:v>
+                  <c:v>122.44</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>238.56</c:v>
+                  <c:v>244.67</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>213.78</c:v>
+                  <c:v>214.22</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>200.44</c:v>
+                  <c:v>191.78</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>221</c:v>
+                  <c:v>214.12</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>221.44</c:v>
+                  <c:v>227.44</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>115.9</c:v>
+                  <c:v>116.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1293,10 +1293,10 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="D2">
-        <v>250</v>
+        <v>248.75</v>
       </c>
       <c r="E2">
         <v>93.34</v>
@@ -1310,10 +1310,10 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="D3">
-        <v>232.8</v>
+        <v>237.2</v>
       </c>
       <c r="E3">
         <v>93.5</v>
@@ -1327,10 +1327,10 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="D4">
-        <v>123.83</v>
+        <v>123</v>
       </c>
       <c r="E4">
         <v>93.67</v>
@@ -1344,10 +1344,10 @@
         <v>12</v>
       </c>
       <c r="C5">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="D5">
-        <v>92.67</v>
+        <v>89.5</v>
       </c>
       <c r="E5">
         <v>93.83</v>
@@ -1361,10 +1361,10 @@
         <v>14</v>
       </c>
       <c r="C6">
-        <v>224</v>
+        <v>273</v>
       </c>
       <c r="D6">
-        <v>258.5</v>
+        <v>264</v>
       </c>
       <c r="E6">
         <v>93.98999999999999</v>
@@ -1378,10 +1378,10 @@
         <v>16</v>
       </c>
       <c r="C7">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="D7">
-        <v>231</v>
+        <v>230.83</v>
       </c>
       <c r="E7">
         <v>94.15000000000001</v>
@@ -1395,10 +1395,10 @@
         <v>18</v>
       </c>
       <c r="C8">
-        <v>248</v>
+        <v>204</v>
       </c>
       <c r="D8">
-        <v>206.83</v>
+        <v>198.33</v>
       </c>
       <c r="E8">
         <v>94.31</v>
@@ -1412,10 +1412,10 @@
         <v>19</v>
       </c>
       <c r="C9">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D9">
-        <v>227.2</v>
+        <v>226.4</v>
       </c>
       <c r="E9">
         <v>94.47</v>
@@ -1429,10 +1429,10 @@
         <v>20</v>
       </c>
       <c r="C10">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D10">
-        <v>207.5</v>
+        <v>211</v>
       </c>
       <c r="E10">
         <v>94.63</v>
@@ -1446,10 +1446,10 @@
         <v>21</v>
       </c>
       <c r="C11">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D11">
-        <v>126.57</v>
+        <v>125.57</v>
       </c>
       <c r="E11">
         <v>94.8</v>
@@ -1463,10 +1463,10 @@
         <v>22</v>
       </c>
       <c r="C12">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D12">
-        <v>102.14</v>
+        <v>99.86</v>
       </c>
       <c r="E12">
         <v>94.95999999999999</v>
@@ -1480,10 +1480,10 @@
         <v>23</v>
       </c>
       <c r="C13">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="D13">
-        <v>261.86</v>
+        <v>267.57</v>
       </c>
       <c r="E13">
         <v>95.12</v>
@@ -1497,10 +1497,10 @@
         <v>24</v>
       </c>
       <c r="C14">
-        <v>182</v>
+        <v>217</v>
       </c>
       <c r="D14">
-        <v>224</v>
+        <v>228.86</v>
       </c>
       <c r="E14">
         <v>95.28</v>
@@ -1514,10 +1514,10 @@
         <v>25</v>
       </c>
       <c r="C15">
-        <v>212</v>
+        <v>190</v>
       </c>
       <c r="D15">
-        <v>207.57</v>
+        <v>197.14</v>
       </c>
       <c r="E15">
         <v>95.44</v>
@@ -1531,10 +1531,10 @@
         <v>26</v>
       </c>
       <c r="C16">
-        <v>274</v>
+        <v>241</v>
       </c>
       <c r="D16">
-        <v>235</v>
+        <v>228.83</v>
       </c>
       <c r="E16">
         <v>95.59999999999999</v>
@@ -1548,10 +1548,10 @@
         <v>27</v>
       </c>
       <c r="C17">
-        <v>299</v>
+        <v>332</v>
       </c>
       <c r="D17">
-        <v>220.57</v>
+        <v>228.29</v>
       </c>
       <c r="E17">
         <v>95.76000000000001</v>
@@ -1565,10 +1565,10 @@
         <v>28</v>
       </c>
       <c r="C18">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="D18">
-        <v>132.38</v>
+        <v>132.5</v>
       </c>
       <c r="E18">
         <v>95.93000000000001</v>
@@ -1582,10 +1582,10 @@
         <v>29</v>
       </c>
       <c r="C19">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D19">
-        <v>107.75</v>
+        <v>105.5</v>
       </c>
       <c r="E19">
         <v>96.09</v>
@@ -1599,10 +1599,10 @@
         <v>30</v>
       </c>
       <c r="C20">
-        <v>268</v>
+        <v>284</v>
       </c>
       <c r="D20">
-        <v>262.62</v>
+        <v>269.62</v>
       </c>
       <c r="E20">
         <v>96.25</v>
@@ -1616,10 +1616,10 @@
         <v>31</v>
       </c>
       <c r="C21">
-        <v>257</v>
+        <v>227</v>
       </c>
       <c r="D21">
-        <v>228.12</v>
+        <v>228.62</v>
       </c>
       <c r="E21">
         <v>96.41</v>
@@ -1633,10 +1633,10 @@
         <v>32</v>
       </c>
       <c r="C22">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D22">
-        <v>207.12</v>
+        <v>197.75</v>
       </c>
       <c r="E22">
         <v>96.56999999999999</v>
@@ -1650,10 +1650,10 @@
         <v>33</v>
       </c>
       <c r="C23">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="D23">
-        <v>231.43</v>
+        <v>224.86</v>
       </c>
       <c r="E23">
         <v>96.73</v>
@@ -1667,10 +1667,10 @@
         <v>34</v>
       </c>
       <c r="C24">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D24">
-        <v>204.88</v>
+        <v>211.25</v>
       </c>
       <c r="E24">
         <v>96.89</v>
@@ -1684,10 +1684,10 @@
         <v>35</v>
       </c>
       <c r="C25">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D25">
-        <v>122.56</v>
+        <v>122.44</v>
       </c>
       <c r="E25">
         <v>97.06</v>
@@ -1701,10 +1701,10 @@
         <v>36</v>
       </c>
       <c r="C26">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D26">
-        <v>238.56</v>
+        <v>244.67</v>
       </c>
       <c r="E26">
         <v>97.38</v>
@@ -1721,7 +1721,7 @@
         <v>99</v>
       </c>
       <c r="D27">
-        <v>213.78</v>
+        <v>214.22</v>
       </c>
       <c r="E27">
         <v>97.54000000000001</v>
@@ -1735,10 +1735,10 @@
         <v>38</v>
       </c>
       <c r="C28">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D28">
-        <v>200.44</v>
+        <v>191.78</v>
       </c>
       <c r="E28">
         <v>97.7</v>
@@ -1752,10 +1752,10 @@
         <v>39</v>
       </c>
       <c r="C29">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="D29">
-        <v>221</v>
+        <v>214.12</v>
       </c>
       <c r="E29">
         <v>97.86</v>
@@ -1769,10 +1769,10 @@
         <v>40</v>
       </c>
       <c r="C30">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D30">
-        <v>221.44</v>
+        <v>227.44</v>
       </c>
       <c r="E30">
         <v>98.03</v>
@@ -1786,10 +1786,10 @@
         <v>41</v>
       </c>
       <c r="C31">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="D31">
-        <v>115.9</v>
+        <v>116.5</v>
       </c>
       <c r="E31">
         <v>98.19</v>
